--- a/MatchTA_UI/public/templates/file1.xlsx
+++ b/MatchTA_UI/public/templates/file1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/Test UI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/MatchTA/MatchTA_UI/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_7C39ABFFF30F9C464A3C34905030634A5738539B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E16ECF-D529-4A15-AD97-EECCB016CF92}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_7C39ABFFF30F9C464A3C34905030634A5738539B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3648B320-C9D9-4689-B8F7-F73996FAD99A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Headcount</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">List the courses that you want to be a TA in the order from highest preference to lowest. For each course you listed, you must have taken it before and include your grade. Example of format: 5383(A), 6345(B). </t>
+  </si>
+  <si>
+    <t>Grad Level</t>
   </si>
 </sst>
 </file>
@@ -96,9 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -405,39 +411,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="179.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="179.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
